--- a/DeepLearningStudy_3기_관리명단.xlsx
+++ b/DeepLearningStudy_3기_관리명단.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F767F-8253-4E4B-9032-7F07C1995A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED416A-3ECE-4970-A293-A48BD80D8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,54 +166,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쪽지시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q &amp; A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O.T.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Github 사용법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#3</t>
   </si>
   <si>
@@ -288,6 +248,94 @@
   </si>
   <si>
     <t>010-5370-9638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4167-8306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황인호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5214-1130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4786-2803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 쪽지시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 쪽지시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구랑 같은 팀을 하고 싶어함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -448,6 +496,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -455,20 +835,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,6 +864,120 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,498 +1342,537 @@
   <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="5" customWidth="1"/>
-    <col min="2" max="8" width="24.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="13" style="5"/>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="8" width="24.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="11">
         <v>2021</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="13">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="str">
         <f>VLOOKUP(D2, backdata!$A$2:$B$13, 2) &amp; ", " &amp; B2</f>
         <v>January, 2021</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7">
         <f>DATE($B$2, $D$2,1)-WEEKDAY(DATE($B$2, $D$2,1)) + 1</f>
         <v>44192</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>B7+1</f>
         <v>44193</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f>C7+1</f>
         <v>44194</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" ref="E7:H7" si="0">D7+1</f>
         <v>44195</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>44196</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>44198</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7">
         <f>B7+7</f>
         <v>44199</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:H12" si="1">C7+7</f>
         <v>44200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>44201</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>44202</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>44203</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>44204</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>44205</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7">
         <f>B12+7</f>
         <v>44206</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <f t="shared" ref="C17:H17" si="2">C12+7</f>
         <v>44207</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>44208</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <f t="shared" si="2"/>
         <v>44209</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="2"/>
         <v>44210</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>44211</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>44212</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="G19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="19.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7">
         <f>B17+7</f>
         <v>44213</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" ref="C22:H22" si="3">C17+7</f>
         <v>44214</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="3"/>
         <v>44215</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="3"/>
         <v>44216</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="3"/>
         <v>44217</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" si="3"/>
         <v>44218</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <f t="shared" si="3"/>
         <v>44219</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="19.5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7">
         <f>B22+7</f>
         <v>44220</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f t="shared" ref="C27:H27" si="4">C22+7</f>
         <v>44221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <f t="shared" si="4"/>
         <v>44222</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f t="shared" si="4"/>
         <v>44223</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <f t="shared" si="4"/>
         <v>44224</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>44225</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <f t="shared" si="4"/>
         <v>44226</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="G29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="19.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="9">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7">
         <f>B27+7</f>
         <v>44227</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f t="shared" ref="C32:H32" si="5">C27+7</f>
         <v>44228</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <f t="shared" si="5"/>
         <v>44229</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <f t="shared" si="5"/>
         <v>44230</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <f t="shared" si="5"/>
         <v>44231</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <f t="shared" si="5"/>
         <v>44232</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <f t="shared" si="5"/>
         <v>44233</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="21">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="12" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1374,7 +1901,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1389,262 +1916,595 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="36" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="43">
         <v>2016305078</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="25">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="44">
+        <v>2017305013</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="44">
+        <v>2017305055</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="44">
+        <v>2017305040</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="44">
+        <v>2017305086</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="44">
+        <v>2016305012</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="44">
+        <v>2019305059</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2017305013</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="F14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1">
-        <v>2017305055</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="48" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="48" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A32" s="49" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="27">
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
     <mergeCell ref="A1:L4"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,457 +2525,457 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="5" customWidth="1"/>
-    <col min="2" max="8" width="24.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="13" style="5"/>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="8" width="24.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="11">
         <v>2021</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="13">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="str">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="str">
         <f>VLOOKUP(D2, backdata!$A$2:$B$13, 2) &amp; ", " &amp; B2</f>
         <v>January, 2021</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7">
         <f>DATE($B$2, $D$2,1)-WEEKDAY(DATE($B$2, $D$2,1)) + 1</f>
         <v>44192</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>B7+1</f>
         <v>44193</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f>C7+1</f>
         <v>44194</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" ref="E7:H7" si="0">D7+1</f>
         <v>44195</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>44196</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>44198</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7">
         <f>B7+7</f>
         <v>44199</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:H12" si="1">C7+7</f>
         <v>44200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>44201</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>44202</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>44203</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>44204</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>44205</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7">
         <f>B12+7</f>
         <v>44206</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <f t="shared" ref="C17:H17" si="2">C12+7</f>
         <v>44207</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <f t="shared" si="2"/>
         <v>44208</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <f t="shared" si="2"/>
         <v>44209</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="2"/>
         <v>44210</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>44211</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>44212</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="19.5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7">
         <f>B17+7</f>
         <v>44213</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" ref="C22:H22" si="3">C17+7</f>
         <v>44214</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="3"/>
         <v>44215</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="3"/>
         <v>44216</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="3"/>
         <v>44217</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" si="3"/>
         <v>44218</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <f t="shared" si="3"/>
         <v>44219</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="19.5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7">
         <f>B22+7</f>
         <v>44220</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f t="shared" ref="C27:H27" si="4">C22+7</f>
         <v>44221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <f t="shared" si="4"/>
         <v>44222</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f t="shared" si="4"/>
         <v>44223</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <f t="shared" si="4"/>
         <v>44224</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>44225</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <f t="shared" si="4"/>
         <v>44226</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="19.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="9">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7">
         <f>B27+7</f>
         <v>44227</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f t="shared" ref="C32:H32" si="5">C27+7</f>
         <v>44228</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <f t="shared" si="5"/>
         <v>44229</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <f t="shared" si="5"/>
         <v>44230</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <f t="shared" si="5"/>
         <v>44231</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <f t="shared" si="5"/>
         <v>44232</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <f t="shared" si="5"/>
         <v>44233</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="3"/>
-      <c r="B36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="21">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="12" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2149,107 +3009,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="13" style="5"/>
+    <col min="1" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DeepLearningStudy_3기_관리명단.xlsx
+++ b/DeepLearningStudy_3기_관리명단.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED416A-3ECE-4970-A293-A48BD80D8175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A026E1-B26C-489D-83CD-70A0F1C595F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
   </bookViews>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김민우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +332,10 @@
   </si>
   <si>
     <t>친구랑 같은 팀을 하고 싶어함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2460-5951</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -828,6 +828,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -835,7 +915,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,121 +943,145 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,17 +1459,17 @@
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="11">
+      <c r="B2" s="35">
         <v>2021</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
@@ -1514,19 +1618,19 @@
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
@@ -1591,19 +1695,19 @@
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="2"/>
@@ -1612,7 +1716,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="2"/>
@@ -1665,19 +1769,19 @@
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="2"/>
@@ -1686,7 +1790,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="G24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="2"/>
@@ -1739,19 +1843,19 @@
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="2"/>
@@ -1760,7 +1864,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="2"/>
@@ -1901,7 +2005,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L4"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1916,568 +2020,588 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="28">
         <v>2016305078</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="29">
         <v>2017305013</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="29">
         <v>2017305055</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2017305040</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2017305086</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="44">
-        <v>2017305040</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="F12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="29">
+        <v>2016305012</v>
+      </c>
+      <c r="C13" s="12">
         <v>3</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="D13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="44">
-        <v>2017305086</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="G13" s="13"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="29">
+        <v>2019305059</v>
+      </c>
+      <c r="C14" s="12">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="44">
-        <v>2016305012</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="44">
-        <v>2019305059</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:L4"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="H32:L32"/>
     <mergeCell ref="H26:L26"/>
@@ -2485,26 +2609,6 @@
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="A1:L4"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,17 +2637,17 @@
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="11">
+      <c r="B2" s="35">
         <v>2021</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">

--- a/DeepLearningStudy_3기_관리명단.xlsx
+++ b/DeepLearningStudy_3기_관리명단.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A026E1-B26C-489D-83CD-70A0F1C595F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18560D-6AAE-4AC4-873D-7D8C84572813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
   </bookViews>
   <sheets>
     <sheet name="1월_일정" sheetId="4" r:id="rId1"/>
-    <sheet name="스터디원_명단" sheetId="1" r:id="rId2"/>
-    <sheet name="달력양식" sheetId="6" r:id="rId3"/>
-    <sheet name="backdata" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="스터디원_명단" sheetId="1" r:id="rId3"/>
+    <sheet name="달력양식" sheetId="6" r:id="rId4"/>
+    <sheet name="backdata" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">스터디원_명단!$A$7:$L$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1월_일정'!$A$2:$I$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">달력양식!$A$2:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">달력양식!$A$2:$I$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,83 +88,308 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 SUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 MON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 TUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 WED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 THU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 FRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토 SAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Deep Learning Study 3기 스케줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github 사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>최영환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5370-9638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4167-8306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황인호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5214-1130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4786-2803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 쪽지시험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구랑 같은 팀을 하고 싶어함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2460-5951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정영도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9960-1519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박관희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2954-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 개인적으로 공부하고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>이수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 SUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 MON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화 TUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 WED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 THU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금 FRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토 SAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>January</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>Deep Learning Study 3기 스케줄</t>
+    <t>Github Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위바위보 다중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle CelebFaces Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jessicali9530/celeba-dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용 데이터셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,144 +397,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Github 사용법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#7</t>
-  </si>
-  <si>
-    <t>#8</t>
-  </si>
-  <si>
-    <t>#9</t>
-  </si>
-  <si>
-    <t>#10</t>
-  </si>
-  <si>
-    <t>#11</t>
-  </si>
-  <si>
-    <t>#12</t>
-  </si>
-  <si>
-    <t>#13</t>
-  </si>
-  <si>
-    <t>#14</t>
-  </si>
-  <si>
-    <t>#15</t>
-  </si>
-  <si>
-    <t>#16</t>
-  </si>
-  <si>
-    <t>#17</t>
-  </si>
-  <si>
-    <t>#18</t>
-  </si>
-  <si>
-    <t>#19</t>
-  </si>
-  <si>
-    <t>#20</t>
-  </si>
-  <si>
-    <t>#21</t>
-  </si>
-  <si>
-    <t>#22</t>
-  </si>
-  <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>#24</t>
-  </si>
-  <si>
-    <t>#25</t>
-  </si>
-  <si>
-    <t>최영환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5370-9638</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신용진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4167-8306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황인호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5214-1130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이현수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4786-2803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 4장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5, 6장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q &amp; A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 쪽지시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 쪽지시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7, 8장</t>
+    <t>예제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jsideas.net/DCGAN_luckyZzang_experiment/</t>
+  </si>
+  <si>
+    <t>첫주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든 피피티 깃허브에 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지시험, 가위바위보 다중분류, Kaggle DCGAN 과제공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전 팀 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용 출제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 마감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,27 +452,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3, 4장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5, 6장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7, 8장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구랑 같은 팀을 하고 싶어함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2460-5951</t>
+    <t>A.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +465,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]mmmm&quot;-&quot;yy;@"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +560,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -458,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -908,14 +1034,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,42 +1292,6 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,10 +1319,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{6F761B9A-9B5E-446C-BF31-47498FC8F75D}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1445,8 +1720,8 @@
   </sheetPr>
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.25"/>
@@ -1504,25 +1779,25 @@
     <row r="6" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1618,7 +1893,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>71</v>
@@ -1627,10 +1902,10 @@
         <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
@@ -1639,10 +1914,19 @@
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="2"/>
@@ -1650,12 +1934,18 @@
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="2"/>
     </row>
@@ -1695,19 +1985,19 @@
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="2"/>
@@ -1715,8 +2005,20 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
+      <c r="C19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="2"/>
@@ -1724,12 +2026,18 @@
     <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
+      <c r="G20" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
+      <c r="G21" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
     </row>
@@ -1769,19 +2077,19 @@
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="2"/>
@@ -1789,8 +2097,20 @@
     <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
+      <c r="C24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="2"/>
@@ -1843,19 +2163,19 @@
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="2"/>
@@ -1863,8 +2183,20 @@
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
+      <c r="C29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="2"/>
@@ -1872,6 +2204,9 @@
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="9"/>
+      <c r="G30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="2"/>
     </row>
@@ -1974,7 +2309,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -1996,16 +2331,72 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595EF6A6-262A-457D-A50D-4D51AE392127}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{998F6DA2-6C0B-4642-8E9D-34020ADFFE12}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF2861-3928-4768-8C45-5DEEA2FB9510}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2020,62 +2411,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
@@ -2100,233 +2491,259 @@
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="32" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B8" s="28">
-        <v>2016305078</v>
+        <v>2016305012</v>
       </c>
       <c r="C8" s="18">
         <v>3</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="33" t="s">
-        <v>14</v>
+      <c r="A9" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="29">
-        <v>2017305013</v>
+        <v>2016305026</v>
       </c>
       <c r="C9" s="12">
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+        <v>88</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33" t="s">
-        <v>38</v>
+      <c r="A10" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="29">
-        <v>2017305055</v>
+        <v>2016305067</v>
       </c>
       <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="G10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33" t="s">
-        <v>39</v>
+      <c r="A11" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="29">
-        <v>2017305040</v>
+        <v>2016305078</v>
       </c>
       <c r="C11" s="12">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="33" t="s">
-        <v>40</v>
+      <c r="A12" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="29">
-        <v>2017305086</v>
+        <v>2017305013</v>
       </c>
       <c r="C12" s="12">
         <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33" t="s">
-        <v>41</v>
+      <c r="A13" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="29">
-        <v>2016305012</v>
+        <v>2017305040</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="33" t="s">
-        <v>42</v>
+      <c r="A14" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="29">
-        <v>2019305059</v>
+        <v>2017305055</v>
       </c>
       <c r="C14" s="12">
         <v>3</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2017305086</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2019305059</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="12"/>
@@ -2334,15 +2751,15 @@
       <c r="E17" s="23"/>
       <c r="F17" s="11"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="12"/>
@@ -2350,15 +2767,15 @@
       <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="12"/>
@@ -2366,15 +2783,15 @@
       <c r="E19" s="23"/>
       <c r="F19" s="11"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="12"/>
@@ -2382,15 +2799,15 @@
       <c r="E20" s="23"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="12"/>
@@ -2398,15 +2815,15 @@
       <c r="E21" s="23"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="12"/>
@@ -2414,15 +2831,15 @@
       <c r="E22" s="23"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="12"/>
@@ -2430,15 +2847,15 @@
       <c r="E23" s="23"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="12"/>
@@ -2446,15 +2863,15 @@
       <c r="E24" s="23"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="12"/>
@@ -2462,15 +2879,15 @@
       <c r="E25" s="23"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="12"/>
@@ -2478,15 +2895,15 @@
       <c r="E26" s="23"/>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="12"/>
@@ -2494,15 +2911,15 @@
       <c r="E27" s="23"/>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="12"/>
@@ -2510,15 +2927,15 @@
       <c r="E28" s="23"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="12"/>
@@ -2526,15 +2943,15 @@
       <c r="E29" s="23"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="12"/>
@@ -2542,15 +2959,15 @@
       <c r="E30" s="23"/>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="12"/>
@@ -2558,15 +2975,15 @@
       <c r="E31" s="23"/>
       <c r="F31" s="11"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1">
       <c r="A32" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="15"/>
@@ -2574,41 +2991,15 @@
       <c r="E32" s="24"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="1">
     <mergeCell ref="A1:L4"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,7 +3007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13A83D0-1B85-4737-A8EA-F0F2CB43C19D}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -2682,25 +3073,25 @@
     <row r="6" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -3077,7 +3468,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3103,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD0F558-35BB-43A9-BE50-ACC2D5A19344}">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -3121,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3129,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3137,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3145,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3153,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3161,7 +3552,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3169,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3177,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3185,7 +3576,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3193,7 +3584,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3201,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3209,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/DeepLearningStudy_3기_관리명단.xlsx
+++ b/DeepLearningStudy_3기_관리명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18560D-6AAE-4AC4-873D-7D8C84572813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FFCEEE-8743-4E8C-81C0-99F3F7F863BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
   </bookViews>
   <sheets>
     <sheet name="1월_일정" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>친구랑 같은 팀을 하고 싶어함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-2460-5951</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,94 +361,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Github Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위바위보 다중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle CelebFaces Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jessicali9530/celeba-dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용 데이터셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jsideas.net/DCGAN_luckyZzang_experiment/</t>
+  </si>
+  <si>
+    <t>첫주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든 피피티 깃허브에 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘째주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지시험, 가위바위보 다중분류, Kaggle DCGAN 과제공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전 팀 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 응용 출제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle DCGAN 마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배제현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6805-2677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8707-8165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구랑 같은팀 선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실 인원이랑 공모전팀 선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3012-2889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Github Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가위바위보 다중분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle DCGAN 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle CelebFaces Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/jessicali9530/celeba-dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle DCGAN 응용 데이터셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q &amp; A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jsideas.net/DCGAN_luckyZzang_experiment/</t>
-  </si>
-  <si>
-    <t>첫주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만든 피피티 깃허브에 올리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘째주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪽지시험, 가위바위보 다중분류, Kaggle DCGAN 과제공지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공모전 팀 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle DCGAN 응용 출제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaggle DCGAN 마감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,6 +1326,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,45 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1720,7 +1760,7 @@
   </sheetPr>
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -1734,17 +1774,17 @@
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="35">
+      <c r="B2" s="48">
         <v>2021</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49">
         <v>1</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">
@@ -1905,7 +1945,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
@@ -1914,16 +1954,16 @@
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>35</v>
@@ -1935,7 +1975,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="2"/>
@@ -2006,19 +2046,19 @@
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="2"/>
@@ -2027,7 +2067,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="G20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="2"/>
@@ -2036,7 +2076,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="G21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
@@ -2089,7 +2129,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="2"/>
@@ -2098,16 +2138,16 @@
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>73</v>
@@ -2175,7 +2215,7 @@
         <v>78</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="2"/>
@@ -2184,19 +2224,19 @@
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="2"/>
@@ -2347,39 +2387,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2395,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF2861-3928-4768-8C45-5DEEA2FB9510}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2411,62 +2451,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="7" spans="1:12" ht="17.25" thickBot="1">
@@ -2491,303 +2531,335 @@
       <c r="G7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="32" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" s="28">
-        <v>2016305012</v>
+        <v>2016305008</v>
       </c>
       <c r="C8" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29">
-        <v>2016305026</v>
+        <v>2016305009</v>
       </c>
       <c r="C9" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
+        <v>117</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="29">
-        <v>2016305067</v>
+        <v>2016305012</v>
       </c>
       <c r="C10" s="12">
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+        <v>63</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="29">
-        <v>2016305078</v>
+        <v>2016305026</v>
       </c>
       <c r="C11" s="12">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+        <v>87</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="29">
-        <v>2017305013</v>
+        <v>2016305033</v>
       </c>
       <c r="C12" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="29">
-        <v>2017305040</v>
+        <v>2016305067</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+        <v>82</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="29">
-        <v>2017305055</v>
+        <v>2016305078</v>
       </c>
       <c r="C14" s="12">
         <v>3</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="29">
-        <v>2017305086</v>
+        <v>2017305013</v>
       </c>
       <c r="C15" s="12">
         <v>3</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="29">
-        <v>2019305059</v>
+        <v>2017305040</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="29">
+        <v>2017305055</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="H17" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="29">
+        <v>2017305086</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="29">
+        <v>2019305059</v>
+      </c>
+      <c r="C19" s="12">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33" t="s">
@@ -2799,11 +2871,11 @@
       <c r="E20" s="23"/>
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="33" t="s">
@@ -2815,11 +2887,11 @@
       <c r="E21" s="23"/>
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="33" t="s">
@@ -2831,11 +2903,11 @@
       <c r="E22" s="23"/>
       <c r="F22" s="11"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="33" t="s">
@@ -2847,11 +2919,11 @@
       <c r="E23" s="23"/>
       <c r="F23" s="11"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="33" t="s">
@@ -2863,11 +2935,11 @@
       <c r="E24" s="23"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="33" t="s">
@@ -2879,11 +2951,11 @@
       <c r="E25" s="23"/>
       <c r="F25" s="11"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="33" t="s">
@@ -2895,11 +2967,11 @@
       <c r="E26" s="23"/>
       <c r="F26" s="11"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="33" t="s">
@@ -2911,11 +2983,11 @@
       <c r="E27" s="23"/>
       <c r="F27" s="11"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="33" t="s">
@@ -2927,11 +2999,11 @@
       <c r="E28" s="23"/>
       <c r="F28" s="11"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
@@ -2943,11 +3015,11 @@
       <c r="E29" s="23"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
@@ -2959,11 +3031,11 @@
       <c r="E30" s="23"/>
       <c r="F30" s="11"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
@@ -2975,11 +3047,11 @@
       <c r="E31" s="23"/>
       <c r="F31" s="11"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1">
       <c r="A32" s="34" t="s">
@@ -2991,13 +3063,18 @@
       <c r="E32" s="24"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:L7" xr:uid="{31FD24ED-BC4E-4457-B06F-28EAB4375911}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:L32">
+      <sortCondition ref="B7"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:L4"/>
   </mergeCells>
@@ -3028,17 +3105,17 @@
   <sheetData>
     <row r="2" spans="1:9" ht="92.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="35">
+      <c r="B2" s="48">
         <v>2021</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49">
         <v>1</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21">

--- a/DeepLearningStudy_3기_관리명단.xlsx
+++ b/DeepLearningStudy_3기_관리명단.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\DeepLearningStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FFCEEE-8743-4E8C-81C0-99F3F7F863BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35FC6E7-0178-4B14-B79E-D848A26BA9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3DDA08B-792F-4AEF-A82E-375530A76439}"/>
   </bookViews>
   <sheets>
     <sheet name="1월_일정" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,60 @@
   </si>
   <si>
     <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로, 실시간 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaggle API 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://teddylee777.github.io/kaggle/Kaggle-API-%EC%82%AC%EC%9A%A9%EB%B2%95</t>
+  </si>
+  <si>
+    <t>CelebA Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmlab.ie.cuhk.edu.hk/projects/CelebA.html</t>
+  </si>
+  <si>
+    <t>조민경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3225-2879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5757-3076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전과생, 본인왈 기본지식 부족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1761,7 +1815,7 @@
   <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.25"/>
@@ -2380,7 +2434,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2404,6 +2458,22 @@
       </c>
       <c r="B3" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2436,7 +2506,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2558,7 +2628,9 @@
       <c r="F8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="H8" s="38"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -2722,8 +2794,12 @@
       <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="41"/>
+      <c r="G14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>125</v>
+      </c>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
@@ -2828,7 +2904,9 @@
       <c r="F18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -2865,12 +2943,24 @@
       <c r="A20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="29">
+        <v>2018108078</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
@@ -2881,13 +2971,25 @@
       <c r="A21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="29">
+        <v>2016314025</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>137</v>
+      </c>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
